--- a/manufatti/diaries/Ronzulli Diary.xlsx
+++ b/manufatti/diaries/Ronzulli Diary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marxo\Documents\UNIVERSITA\Appunti lezioni\Modelli e metodi per qualità software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marxo\Documents\Git\Waluigi\manufatti\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1ED44C-97D2-43FE-9AAF-62A9271E6EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B73CE0-DE31-4A6C-8E9C-19D0024135A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -640,7 +640,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1890,53 +1890,77 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="13">
+        <v>45159</v>
+      </c>
+      <c r="B33" s="5">
+        <v>50001</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="L33" s="10"/>
       <c r="M33" s="6"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="P33" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="6"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="V33" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="W33" s="15"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="13">
+        <v>45159</v>
+      </c>
+      <c r="B34" s="5">
+        <v>50002</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="6"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="P34" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="6"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="W34" s="15"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
